--- a/biology/Botanique/Tylosema_esculentum/Tylosema_esculentum.xlsx
+++ b/biology/Botanique/Tylosema_esculentum/Tylosema_esculentum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Tylosema esculentum ou marama, est une espèce de plantes dicotylédones de la famille des Fabaceae, sous-famille des Caesalpinioideae, originaire d'Afrique australe.
@@ -513,16 +525,18 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tylosema esculentum est une plante vivace herbacée, partiellement ligneuse, au port prostré ou traînant, aux tiges pouvant atteindre six mètres de long.
 Les ramifications, rougeâtres à grisâtres, sont d'abord pubescentes puis glabrescentes. Des vrilles axillaires, fourchues, de 1 à 4 cm de long lui permettent de s'accrocher à des supports  pour grimper. La plante est vivace grâce à ses racines tubérisées.
-Les feuilles, alternes, entières, portées par un pétiole de 1,3 à 3,5 cm de long, ont un limbe bilobé sur la moitié de sa longueur, de 3 à 7,5 de large sur 4 à 10 cm de long, cordé à la base et aux lobes réniformes. Elle présentent des stipules elliptiques à obovales de 3 à 5 mm de long[2],[3].
+Les feuilles, alternes, entières, portées par un pétiole de 1,3 à 3,5 cm de long, ont un limbe bilobé sur la moitié de sa longueur, de 3 à 7,5 de large sur 4 à 10 cm de long, cordé à la base et aux lobes réniformes. Elle présentent des stipules elliptiques à obovales de 3 à 5 mm de long,.
 L'inflorescence est une grappe de 4 à 16 cm de long groupant de 8 à 20 fleurs portées par un pédicelle de 2 à 4,5 cm de long.
 Les fleurs bisexuées, zygomorphes, à symétrie pentamère, ont un calice aux sépales oblongs-lancéolés de 8 à 12 mm de long, pubescents, libres sauf les deux supérieurs qui sont soudés, et une corolle de pétales inégaux, de couleur jaune virant au rouge, dont les quatre plus grands, de 1,5 à 2,5 cm de long, s'étalent en une forme obovale légèrement plissée portée par une longue griffe. 
 Les étamines fertiles, au nombre de deux, ont un filament de 10 à 12 mm de long, tandis que celui des staminodes, au nombre de huit, est plus court (3 à 6 mm de long). L'ovaire, supère, de 5 à 6 mm de long, est glabre. 
 Les fruits sont des gousses ovales-oblongues, aplaties, ligneuses, glabres, de couleur rouge virant au brun, mesurant de 5 à 9 cm de long sur 4,5 à 6,5 cm de large.
-Ces gousses, comprimées entre les graines contiennent en général une à deux graines ovoïdes à globuleuse, de 1,3 à 2 cm de long sur 1,2 à 1,8 cm de large, de couleur brun-noirâtre[2],[3].  
+Ces gousses, comprimées entre les graines contiennent en général une à deux graines ovoïdes à globuleuse, de 1,3 à 2 cm de long sur 1,2 à 1,8 cm de large, de couleur brun-noirâtre,.  
 </t>
         </is>
       </c>
@@ -551,9 +565,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (4 janvier 2019)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (4 janvier 2019) :
 Bauhinia bainesii Schinz
 Bauhinia esculenta Burch.</t>
         </is>
